--- a/DMS phase 1a/1a staging table/CP_POL_CLIENTS.xlsx
+++ b/DMS phase 1a/1a staging table/CP_POL_CLIENTS.xlsx
@@ -291,7 +291,7 @@
     <t>For GI, we indicated as 1-policy holder only</t>
   </si>
   <si>
-    <t>What is the definition for this field, is there any sample? How to display if it's a new business policy or quotation?</t>
+    <t>Default to be display as '1'</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,12 +367,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -431,21 +425,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -755,7 +748,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +806,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -828,21 +821,21 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>72</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -895,7 +888,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -915,7 +908,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -955,13 +948,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -977,7 +970,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -997,7 +990,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1017,7 +1010,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1037,7 +1030,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1057,7 +1050,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1077,7 +1070,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1097,7 +1090,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1117,7 +1110,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1137,7 +1130,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1153,44 +1146,44 @@
       <c r="G19" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
